--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H2">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J2">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>2.169526444394127</v>
+        <v>2.517921054146333</v>
       </c>
       <c r="R2">
-        <v>2.169526444394127</v>
+        <v>15.107526324878</v>
       </c>
       <c r="S2">
-        <v>0.05933797795377421</v>
+        <v>0.05717754576435783</v>
       </c>
       <c r="T2">
-        <v>0.05933797795377421</v>
+        <v>0.05001903542620964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H3">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J3">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>0.5550190084572861</v>
+        <v>0.6020202103953332</v>
       </c>
       <c r="R3">
-        <v>0.5550190084572861</v>
+        <v>5.418181893558</v>
       </c>
       <c r="S3">
-        <v>0.01518013563414356</v>
+        <v>0.01367081707119599</v>
       </c>
       <c r="T3">
-        <v>0.01518013563414356</v>
+        <v>0.01793888862091483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H4">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J4">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>0.1082085058829264</v>
+        <v>0.113528655544</v>
       </c>
       <c r="R4">
-        <v>0.1082085058829264</v>
+        <v>1.021757899896</v>
       </c>
       <c r="S4">
-        <v>0.002959573944389077</v>
+        <v>0.002578035513561349</v>
       </c>
       <c r="T4">
-        <v>0.002959573944389077</v>
+        <v>0.00338290620799698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H5">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J5">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>0.1537698344893228</v>
+        <v>0.1619440339866667</v>
       </c>
       <c r="R5">
-        <v>0.1537698344893228</v>
+        <v>1.45749630588</v>
       </c>
       <c r="S5">
-        <v>0.004205706306304586</v>
+        <v>0.003677463357832195</v>
       </c>
       <c r="T5">
-        <v>0.004205706306304586</v>
+        <v>0.00482557883995414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H6">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J6">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>1.62722410421227</v>
+        <v>1.815249797680445</v>
       </c>
       <c r="R6">
-        <v>1.62722410421227</v>
+        <v>16.337248179124</v>
       </c>
       <c r="S6">
-        <v>0.04450565157714058</v>
+        <v>0.04122112097585364</v>
       </c>
       <c r="T6">
-        <v>0.04450565157714058</v>
+        <v>0.0540904829728954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H7">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J7">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>0.2657066267697406</v>
+        <v>0.2774916601633333</v>
       </c>
       <c r="R7">
-        <v>0.2657066267697406</v>
+        <v>1.66494996098</v>
       </c>
       <c r="S7">
-        <v>0.007267251340574284</v>
+        <v>0.006301346133187593</v>
       </c>
       <c r="T7">
-        <v>0.007267251340574284</v>
+        <v>0.005512430644849299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H8">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I8">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J8">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>5.18100639275702</v>
+        <v>6.976537053839166</v>
       </c>
       <c r="R8">
-        <v>5.18100639275702</v>
+        <v>41.859222323035</v>
       </c>
       <c r="S8">
-        <v>0.141703939081339</v>
+        <v>0.1584248505391958</v>
       </c>
       <c r="T8">
-        <v>0.141703939081339</v>
+        <v>0.1385903872854169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H9">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I9">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J9">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>1.325430735517909</v>
+        <v>1.668049241681666</v>
       </c>
       <c r="R9">
-        <v>1.325430735517909</v>
+        <v>15.012443175135</v>
       </c>
       <c r="S9">
-        <v>0.03625140406406992</v>
+        <v>0.0378784559970215</v>
       </c>
       <c r="T9">
-        <v>0.03625140406406992</v>
+        <v>0.04970422760571298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H10">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I10">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J10">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>0.2584107523458611</v>
+        <v>0.31455985118</v>
       </c>
       <c r="R10">
-        <v>0.2584107523458611</v>
+        <v>2.83103866062</v>
       </c>
       <c r="S10">
-        <v>0.007067704367161583</v>
+        <v>0.007143099366382585</v>
       </c>
       <c r="T10">
-        <v>0.007067704367161583</v>
+        <v>0.009373197174267668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H11">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I11">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J11">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>0.3672149272763789</v>
+        <v>0.4487069012333334</v>
       </c>
       <c r="R11">
-        <v>0.3672149272763789</v>
+        <v>4.038362111100001</v>
       </c>
       <c r="S11">
-        <v>0.01004357025254315</v>
+        <v>0.01018934225034725</v>
       </c>
       <c r="T11">
-        <v>0.01004357025254315</v>
+        <v>0.01337048654790975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H12">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I12">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J12">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>3.885944099992972</v>
+        <v>5.029608634725556</v>
       </c>
       <c r="R12">
-        <v>3.885944099992972</v>
+        <v>45.26647771253</v>
       </c>
       <c r="S12">
-        <v>0.1062831319391343</v>
+        <v>0.1142135403392662</v>
       </c>
       <c r="T12">
-        <v>0.1062831319391343</v>
+        <v>0.1498713623681905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H13">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I13">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J13">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>0.6345291321288198</v>
+        <v>0.7688608211416668</v>
       </c>
       <c r="R13">
-        <v>0.6345291321288198</v>
+        <v>4.613164926850001</v>
       </c>
       <c r="S13">
-        <v>0.01735478991305966</v>
+        <v>0.01745947305014055</v>
       </c>
       <c r="T13">
-        <v>0.01735478991305966</v>
+        <v>0.01527358317576332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H14">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I14">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J14">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>4.715687424251669</v>
+        <v>5.458188459635167</v>
       </c>
       <c r="R14">
-        <v>4.715687424251669</v>
+        <v>32.749130757811</v>
       </c>
       <c r="S14">
-        <v>0.1289771586514492</v>
+        <v>0.1239458321885664</v>
       </c>
       <c r="T14">
-        <v>0.1289771586514492</v>
+        <v>0.1084280706401979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H15">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I15">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J15">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>1.206390530599674</v>
+        <v>1.305020965385667</v>
       </c>
       <c r="R15">
-        <v>1.206390530599674</v>
+        <v>11.745188688471</v>
       </c>
       <c r="S15">
-        <v>0.03299557601306702</v>
+        <v>0.029634724189986</v>
       </c>
       <c r="T15">
-        <v>0.03299557601306702</v>
+        <v>0.03888677712437426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H16">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I16">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J16">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.235202245037249</v>
+        <v>0.246100169228</v>
       </c>
       <c r="R16">
-        <v>0.235202245037249</v>
+        <v>2.214901523052</v>
       </c>
       <c r="S16">
-        <v>0.006432936398060832</v>
+        <v>0.005588500745676039</v>
       </c>
       <c r="T16">
-        <v>0.006432936398060832</v>
+        <v>0.007333248035759975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H17">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I17">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J17">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>0.3342344485379452</v>
+        <v>0.3510519346733335</v>
       </c>
       <c r="R17">
-        <v>0.3342344485379452</v>
+        <v>3.159467412060001</v>
       </c>
       <c r="S17">
-        <v>0.009141532425190182</v>
+        <v>0.007971770213922022</v>
       </c>
       <c r="T17">
-        <v>0.009141532425190182</v>
+        <v>0.01046058163417169</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H18">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I18">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J18">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>3.536937871626601</v>
+        <v>3.934982584437557</v>
       </c>
       <c r="R18">
-        <v>3.536937871626601</v>
+        <v>35.414843259938</v>
       </c>
       <c r="S18">
-        <v>0.0967375816011586</v>
+        <v>0.0893565135543577</v>
       </c>
       <c r="T18">
-        <v>0.0967375816011586</v>
+        <v>0.1172538946177746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H19">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I19">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J19">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>0.577540505042479</v>
+        <v>0.6015286995016668</v>
       </c>
       <c r="R19">
-        <v>0.577540505042479</v>
+        <v>3.60917219701</v>
       </c>
       <c r="S19">
-        <v>0.01579611340722453</v>
+        <v>0.01365965572577969</v>
       </c>
       <c r="T19">
-        <v>0.01579611340722453</v>
+        <v>0.01194949511252908</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H20">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I20">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J20">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>4.190235950291697</v>
+        <v>0.2765683517783333</v>
       </c>
       <c r="R20">
-        <v>4.190235950291697</v>
+        <v>1.65941011067</v>
       </c>
       <c r="S20">
-        <v>0.1146057145705626</v>
+        <v>0.006280379428393167</v>
       </c>
       <c r="T20">
-        <v>0.1146057145705626</v>
+        <v>0.005494088928081578</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H21">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I21">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J21">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>1.071966930083882</v>
+        <v>0.06612587676333331</v>
       </c>
       <c r="R21">
-        <v>1.071966930083882</v>
+        <v>0.5951328908699999</v>
       </c>
       <c r="S21">
-        <v>0.02931900195494322</v>
+        <v>0.001501602021484206</v>
       </c>
       <c r="T21">
-        <v>0.02931900195494322</v>
+        <v>0.001970406836406388</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1780,49 +1780,49 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H22">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I22">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J22">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>0.2089945354893395</v>
+        <v>0.01246998316</v>
       </c>
       <c r="R22">
-        <v>0.2089945354893395</v>
+        <v>0.11222984844</v>
       </c>
       <c r="S22">
-        <v>0.005716138271266366</v>
+        <v>0.0002831713216891963</v>
       </c>
       <c r="T22">
-        <v>0.005716138271266366</v>
+        <v>0.0003715782878203147</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1842,49 +1842,49 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H23">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I23">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J23">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>0.2969919496544804</v>
+        <v>0.01778792646666667</v>
       </c>
       <c r="R23">
-        <v>0.2969919496544804</v>
+        <v>0.1600913382</v>
       </c>
       <c r="S23">
-        <v>0.008122925538235347</v>
+        <v>0.0004039324338330731</v>
       </c>
       <c r="T23">
-        <v>0.008122925538235347</v>
+        <v>0.000530041394246571</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H24">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I24">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J24">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>3.14283006702673</v>
+        <v>0.1993869679844445</v>
       </c>
       <c r="R24">
-        <v>3.14283006702673</v>
+        <v>1.79448271186</v>
       </c>
       <c r="S24">
-        <v>0.08595847343163904</v>
+        <v>0.004527726343116939</v>
       </c>
       <c r="T24">
-        <v>0.08595847343163904</v>
+        <v>0.005941296570070411</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04982333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.14947</v>
+      </c>
+      <c r="I25">
+        <v>0.01368895116551157</v>
+      </c>
+      <c r="J25">
+        <v>0.01491289718671342</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.611755</v>
+      </c>
+      <c r="N25">
+        <v>1.22351</v>
+      </c>
+      <c r="O25">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P25">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q25">
+        <v>0.03047967328333333</v>
+      </c>
+      <c r="R25">
+        <v>0.1828780397</v>
+      </c>
+      <c r="S25">
+        <v>0.0006921396169949908</v>
+      </c>
+      <c r="T25">
+        <v>0.0006054851700881577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.896157</v>
+      </c>
+      <c r="H26">
+        <v>1.792314</v>
+      </c>
+      <c r="I26">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J26">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.5509805</v>
+      </c>
+      <c r="N26">
+        <v>11.101961</v>
+      </c>
+      <c r="O26">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P26">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q26">
+        <v>4.9745500319385</v>
+      </c>
+      <c r="R26">
+        <v>19.898200127754</v>
+      </c>
+      <c r="S26">
+        <v>0.1129632565881555</v>
+      </c>
+      <c r="T26">
+        <v>0.06588032717632707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.896157</v>
+      </c>
+      <c r="H27">
+        <v>1.792314</v>
+      </c>
+      <c r="I27">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J27">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.327207</v>
+      </c>
+      <c r="N27">
+        <v>3.981621</v>
+      </c>
+      <c r="O27">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P27">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q27">
+        <v>1.189385843499</v>
+      </c>
+      <c r="R27">
+        <v>7.136315060993999</v>
+      </c>
+      <c r="S27">
+        <v>0.02700885454139068</v>
+      </c>
+      <c r="T27">
+        <v>0.02362740187721201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.896157</v>
+      </c>
+      <c r="H28">
+        <v>1.792314</v>
+      </c>
+      <c r="I28">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J28">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.250284</v>
+      </c>
+      <c r="N28">
+        <v>0.750852</v>
+      </c>
+      <c r="O28">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P28">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q28">
+        <v>0.224293758588</v>
+      </c>
+      <c r="R28">
+        <v>1.345762551528</v>
+      </c>
+      <c r="S28">
+        <v>0.005093315624493713</v>
+      </c>
+      <c r="T28">
+        <v>0.004455643054501771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.896157</v>
+      </c>
+      <c r="H29">
+        <v>1.792314</v>
+      </c>
+      <c r="I29">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J29">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.07106</v>
+      </c>
+      <c r="O29">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P29">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q29">
+        <v>0.31994597214</v>
+      </c>
+      <c r="R29">
+        <v>1.91967583284</v>
+      </c>
+      <c r="S29">
+        <v>0.00726540867277471</v>
+      </c>
+      <c r="T29">
+        <v>0.006355794550663335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="H25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="I25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="J25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q25">
-        <v>0.5131873191028247</v>
-      </c>
-      <c r="R25">
-        <v>0.5131873191028247</v>
-      </c>
-      <c r="S25">
-        <v>0.01403601136356922</v>
-      </c>
-      <c r="T25">
-        <v>0.01403601136356922</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.896157</v>
+      </c>
+      <c r="H30">
+        <v>1.792314</v>
+      </c>
+      <c r="I30">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J30">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N30">
+        <v>12.005638</v>
+      </c>
+      <c r="O30">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P30">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q30">
+        <v>3.586312177722001</v>
+      </c>
+      <c r="R30">
+        <v>21.517873066332</v>
+      </c>
+      <c r="S30">
+        <v>0.08143882363956606</v>
+      </c>
+      <c r="T30">
+        <v>0.0712428515467263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.896157</v>
+      </c>
+      <c r="H31">
+        <v>1.792314</v>
+      </c>
+      <c r="I31">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J31">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>0.548228525535</v>
+      </c>
+      <c r="R31">
+        <v>2.19291410214</v>
+      </c>
+      <c r="S31">
+        <v>0.01244930279147749</v>
+      </c>
+      <c r="T31">
+        <v>0.007260450572967059</v>
       </c>
     </row>
   </sheetData>
